--- a/MRS_data.xlsx
+++ b/MRS_data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="10">
   <si>
     <t>X1</t>
   </si>
@@ -32,6 +32,18 @@
   </si>
   <si>
     <t>X6</t>
+  </si>
+  <si>
+    <t>X7</t>
+  </si>
+  <si>
+    <t>X8</t>
+  </si>
+  <si>
+    <t>X9</t>
+  </si>
+  <si>
+    <t>X10</t>
   </si>
 </sst>
 </file>
@@ -107,16 +119,16 @@
         <v>1.0</v>
       </c>
       <c r="B2" t="n">
-        <v>50.19592876190395</v>
+        <v>48.54551837018697</v>
       </c>
       <c r="C2" t="n">
-        <v>42.41248070052262</v>
+        <v>57.538548789545054</v>
       </c>
       <c r="D2" t="n">
-        <v>49.1708773510098</v>
+        <v>48.797926570879355</v>
       </c>
       <c r="E2" t="n">
-        <v>39.62122161653385</v>
+        <v>42.06467133249962</v>
       </c>
       <c r="F2" t="n">
         <v>2.0</v>
@@ -127,16 +139,16 @@
         <v>2.0</v>
       </c>
       <c r="B3" t="n">
-        <v>37.695047433414075</v>
+        <v>45.14690732816708</v>
       </c>
       <c r="C3" t="n">
-        <v>53.33329943774655</v>
+        <v>47.01839388776104</v>
       </c>
       <c r="D3" t="n">
-        <v>47.46995359182528</v>
+        <v>62.422586339731744</v>
       </c>
       <c r="E3" t="n">
-        <v>49.50172561723388</v>
+        <v>46.001035306919036</v>
       </c>
       <c r="F3" t="n">
         <v>2.0</v>
@@ -147,19 +159,19 @@
         <v>3.0</v>
       </c>
       <c r="B4" t="n">
-        <v>40.490852371159505</v>
+        <v>45.83494979002691</v>
       </c>
       <c r="C4" t="n">
-        <v>46.101403199733596</v>
+        <v>48.902154710298404</v>
       </c>
       <c r="D4" t="n">
-        <v>51.84973971617006</v>
+        <v>25.765758990281476</v>
       </c>
       <c r="E4" t="n">
-        <v>49.76072091608292</v>
+        <v>66.67526286867746</v>
       </c>
       <c r="F4" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="5">
@@ -167,19 +179,19 @@
         <v>4.0</v>
       </c>
       <c r="B5" t="n">
-        <v>50.12226037918398</v>
+        <v>45.37417813158623</v>
       </c>
       <c r="C5" t="n">
-        <v>43.47827381613103</v>
+        <v>53.966774585817426</v>
       </c>
       <c r="D5" t="n">
-        <v>37.604395444283405</v>
+        <v>44.120587137138955</v>
       </c>
       <c r="E5" t="n">
-        <v>36.73280267598365</v>
+        <v>58.405516985425</v>
       </c>
       <c r="F5" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="6">
@@ -187,19 +199,19 @@
         <v>5.0</v>
       </c>
       <c r="B6" t="n">
-        <v>26.005832066472443</v>
+        <v>57.28838882174107</v>
       </c>
       <c r="C6" t="n">
-        <v>46.21016874964155</v>
+        <v>33.36992061834327</v>
       </c>
       <c r="D6" t="n">
-        <v>40.77785209435577</v>
+        <v>42.17199830540642</v>
       </c>
       <c r="E6" t="n">
-        <v>44.28514660826613</v>
+        <v>23.62653547248623</v>
       </c>
       <c r="F6" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="7">
@@ -207,19 +219,19 @@
         <v>6.0</v>
       </c>
       <c r="B7" t="n">
-        <v>33.92895669059402</v>
+        <v>59.7902929121501</v>
       </c>
       <c r="C7" t="n">
-        <v>49.50386633777455</v>
+        <v>52.247286692229174</v>
       </c>
       <c r="D7" t="n">
-        <v>55.10279932625967</v>
+        <v>29.660529543172597</v>
       </c>
       <c r="E7" t="n">
-        <v>39.85013320113165</v>
+        <v>41.415705598187955</v>
       </c>
       <c r="F7" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="8">
@@ -227,16 +239,16 @@
         <v>7.0</v>
       </c>
       <c r="B8" t="n">
-        <v>43.002621808223424</v>
+        <v>38.83814643857983</v>
       </c>
       <c r="C8" t="n">
-        <v>67.26147141279479</v>
+        <v>41.489838465091466</v>
       </c>
       <c r="D8" t="n">
-        <v>38.93319636963194</v>
+        <v>52.630186571254775</v>
       </c>
       <c r="E8" t="n">
-        <v>53.42993768718033</v>
+        <v>35.786955430484866</v>
       </c>
       <c r="F8" t="n">
         <v>1.0</v>
@@ -247,19 +259,19 @@
         <v>8.0</v>
       </c>
       <c r="B9" t="n">
-        <v>55.77258587951739</v>
+        <v>57.42896807145571</v>
       </c>
       <c r="C9" t="n">
-        <v>35.197010128132646</v>
+        <v>48.02325642531207</v>
       </c>
       <c r="D9" t="n">
-        <v>60.264743278721795</v>
+        <v>64.20174465515193</v>
       </c>
       <c r="E9" t="n">
-        <v>52.71492469798879</v>
+        <v>56.78886522809812</v>
       </c>
       <c r="F9" t="n">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="10">
@@ -267,19 +279,19 @@
         <v>9.0</v>
       </c>
       <c r="B10" t="n">
-        <v>62.94483070069188</v>
+        <v>62.969852086577056</v>
       </c>
       <c r="C10" t="n">
-        <v>75.31944636589502</v>
+        <v>64.82786917882618</v>
       </c>
       <c r="D10" t="n">
-        <v>64.53992313121898</v>
+        <v>59.00285821890128</v>
       </c>
       <c r="E10" t="n">
-        <v>55.0992267074809</v>
+        <v>50.61435657802859</v>
       </c>
       <c r="F10" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="11">
@@ -287,19 +299,19 @@
         <v>10.0</v>
       </c>
       <c r="B11" t="n">
-        <v>43.34150225921067</v>
+        <v>59.26668032129379</v>
       </c>
       <c r="C11" t="n">
-        <v>41.63074633083555</v>
+        <v>30.624924225804484</v>
       </c>
       <c r="D11" t="n">
-        <v>60.319531296548504</v>
+        <v>46.41500591024404</v>
       </c>
       <c r="E11" t="n">
-        <v>40.050806763728936</v>
+        <v>76.95056598008395</v>
       </c>
       <c r="F11" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="12">
@@ -307,19 +319,19 @@
         <v>11.0</v>
       </c>
       <c r="B12" t="n">
-        <v>53.19705430013419</v>
+        <v>42.070201870349536</v>
       </c>
       <c r="C12" t="n">
-        <v>40.210446067717065</v>
+        <v>34.68146514766141</v>
       </c>
       <c r="D12" t="n">
-        <v>46.84202073231453</v>
+        <v>46.78016868964792</v>
       </c>
       <c r="E12" t="n">
-        <v>43.31352649364544</v>
+        <v>62.06754938360667</v>
       </c>
       <c r="F12" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="13">
@@ -327,19 +339,19 @@
         <v>12.0</v>
       </c>
       <c r="B13" t="n">
-        <v>36.489914296995266</v>
+        <v>21.122284796501738</v>
       </c>
       <c r="C13" t="n">
-        <v>61.37524452744705</v>
+        <v>35.96251984870354</v>
       </c>
       <c r="D13" t="n">
-        <v>51.57172774901328</v>
+        <v>56.9380637349323</v>
       </c>
       <c r="E13" t="n">
-        <v>58.10270305707217</v>
+        <v>43.15362905105364</v>
       </c>
       <c r="F13" t="n">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="14">
@@ -347,19 +359,19 @@
         <v>13.0</v>
       </c>
       <c r="B14" t="n">
-        <v>63.84766050965844</v>
+        <v>54.03325801555252</v>
       </c>
       <c r="C14" t="n">
-        <v>36.51503314471776</v>
+        <v>53.402038586614765</v>
       </c>
       <c r="D14" t="n">
-        <v>55.71893946146876</v>
+        <v>69.90766139978018</v>
       </c>
       <c r="E14" t="n">
-        <v>51.86001155938744</v>
+        <v>46.0959640244921</v>
       </c>
       <c r="F14" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="15">
@@ -367,16 +379,16 @@
         <v>14.0</v>
       </c>
       <c r="B15" t="n">
-        <v>33.208368687683205</v>
+        <v>45.41888930063882</v>
       </c>
       <c r="C15" t="n">
-        <v>48.01291185299476</v>
+        <v>41.722023557213916</v>
       </c>
       <c r="D15" t="n">
-        <v>54.189582804029264</v>
+        <v>57.40094395739229</v>
       </c>
       <c r="E15" t="n">
-        <v>34.1594938373437</v>
+        <v>38.11109069726059</v>
       </c>
       <c r="F15" t="n">
         <v>2.0</v>
@@ -387,19 +399,19 @@
         <v>15.0</v>
       </c>
       <c r="B16" t="n">
-        <v>28.430065589295932</v>
+        <v>57.40636287783546</v>
       </c>
       <c r="C16" t="n">
-        <v>45.792354396046846</v>
+        <v>44.63247700377285</v>
       </c>
       <c r="D16" t="n">
-        <v>53.4244742152512</v>
+        <v>46.441614464361734</v>
       </c>
       <c r="E16" t="n">
-        <v>56.17957052292517</v>
+        <v>42.266730433652064</v>
       </c>
       <c r="F16" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="17">
@@ -407,19 +419,19 @@
         <v>16.0</v>
       </c>
       <c r="B17" t="n">
-        <v>45.1354103537435</v>
+        <v>57.069209458789835</v>
       </c>
       <c r="C17" t="n">
-        <v>44.12498907499308</v>
+        <v>54.468987723107695</v>
       </c>
       <c r="D17" t="n">
-        <v>49.38789871245011</v>
+        <v>38.879591795873296</v>
       </c>
       <c r="E17" t="n">
-        <v>44.89795156409216</v>
+        <v>41.56447149726737</v>
       </c>
       <c r="F17" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="18">
@@ -427,19 +439,19 @@
         <v>17.0</v>
       </c>
       <c r="B18" t="n">
-        <v>75.48911495365671</v>
+        <v>42.77714816513395</v>
       </c>
       <c r="C18" t="n">
-        <v>49.47129054056119</v>
+        <v>54.74255547842519</v>
       </c>
       <c r="D18" t="n">
-        <v>25.41518909957674</v>
+        <v>54.380726726785674</v>
       </c>
       <c r="E18" t="n">
-        <v>51.24380144254407</v>
+        <v>49.681140498551336</v>
       </c>
       <c r="F18" t="n">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="19">
@@ -447,19 +459,19 @@
         <v>18.0</v>
       </c>
       <c r="B19" t="n">
-        <v>61.719405505416745</v>
+        <v>40.15182112642472</v>
       </c>
       <c r="C19" t="n">
-        <v>65.42215264910325</v>
+        <v>49.95822134443484</v>
       </c>
       <c r="D19" t="n">
-        <v>62.71412122352059</v>
+        <v>60.12773495763734</v>
       </c>
       <c r="E19" t="n">
-        <v>33.22501028282772</v>
+        <v>64.4766582413501</v>
       </c>
       <c r="F19" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="20">
@@ -467,19 +479,19 @@
         <v>19.0</v>
       </c>
       <c r="B20" t="n">
-        <v>42.29922765752083</v>
+        <v>33.72038428968989</v>
       </c>
       <c r="C20" t="n">
-        <v>73.38952640463967</v>
+        <v>52.08617712539953</v>
       </c>
       <c r="D20" t="n">
-        <v>60.51447195041949</v>
+        <v>44.72004905594034</v>
       </c>
       <c r="E20" t="n">
-        <v>43.55525401431686</v>
+        <v>54.58570993964746</v>
       </c>
       <c r="F20" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="21">
@@ -487,19 +499,19 @@
         <v>20.0</v>
       </c>
       <c r="B21" t="n">
-        <v>58.72054958550325</v>
+        <v>55.675318768955194</v>
       </c>
       <c r="C21" t="n">
-        <v>56.454022905296796</v>
+        <v>49.382960958843924</v>
       </c>
       <c r="D21" t="n">
-        <v>51.5887934881252</v>
+        <v>42.47828933261674</v>
       </c>
       <c r="E21" t="n">
-        <v>40.057551743816376</v>
+        <v>59.81405116701666</v>
       </c>
       <c r="F21" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="22">
@@ -507,19 +519,19 @@
         <v>21.0</v>
       </c>
       <c r="B22" t="n">
-        <v>33.98978657759595</v>
+        <v>33.51782736587149</v>
       </c>
       <c r="C22" t="n">
-        <v>46.14539442460342</v>
+        <v>51.003504608341665</v>
       </c>
       <c r="D22" t="n">
-        <v>53.58985314707657</v>
+        <v>41.90133958194965</v>
       </c>
       <c r="E22" t="n">
-        <v>55.2278581037085</v>
+        <v>72.49844543620777</v>
       </c>
       <c r="F22" t="n">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="23">
@@ -527,19 +539,19 @@
         <v>22.0</v>
       </c>
       <c r="B23" t="n">
-        <v>49.551686058383865</v>
+        <v>37.77491352383764</v>
       </c>
       <c r="C23" t="n">
-        <v>35.72920358340814</v>
+        <v>47.9953844640805</v>
       </c>
       <c r="D23" t="n">
-        <v>56.209162603633125</v>
+        <v>50.19953860340264</v>
       </c>
       <c r="E23" t="n">
-        <v>61.80415384215717</v>
+        <v>66.9685962181924</v>
       </c>
       <c r="F23" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="24">
@@ -547,19 +559,19 @@
         <v>23.0</v>
       </c>
       <c r="B24" t="n">
-        <v>54.500806966688586</v>
+        <v>52.69802966815686</v>
       </c>
       <c r="C24" t="n">
-        <v>40.07231849536976</v>
+        <v>45.033913042810674</v>
       </c>
       <c r="D24" t="n">
-        <v>69.14019063279324</v>
+        <v>48.93036602737811</v>
       </c>
       <c r="E24" t="n">
-        <v>45.498664072998146</v>
+        <v>45.491786410114294</v>
       </c>
       <c r="F24" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="25">
@@ -567,19 +579,19 @@
         <v>24.0</v>
       </c>
       <c r="B25" t="n">
-        <v>36.96748200365951</v>
+        <v>55.12741608793189</v>
       </c>
       <c r="C25" t="n">
-        <v>46.97064081708793</v>
+        <v>62.64393853912593</v>
       </c>
       <c r="D25" t="n">
-        <v>51.036672811650746</v>
+        <v>62.25138187132277</v>
       </c>
       <c r="E25" t="n">
-        <v>38.84609336509447</v>
+        <v>49.164882116944845</v>
       </c>
       <c r="F25" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="26">
@@ -587,19 +599,19 @@
         <v>25.0</v>
       </c>
       <c r="B26" t="n">
-        <v>50.8877968095118</v>
+        <v>50.419860564413796</v>
       </c>
       <c r="C26" t="n">
-        <v>32.981733813018444</v>
+        <v>50.18237664667629</v>
       </c>
       <c r="D26" t="n">
-        <v>60.47693864024673</v>
+        <v>43.39031116013096</v>
       </c>
       <c r="E26" t="n">
-        <v>58.54618340438711</v>
+        <v>46.235840262880295</v>
       </c>
       <c r="F26" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="27">
@@ -607,19 +619,19 @@
         <v>26.0</v>
       </c>
       <c r="B27" t="n">
-        <v>56.65410553627912</v>
+        <v>68.00227823903138</v>
       </c>
       <c r="C27" t="n">
-        <v>54.11945563418392</v>
+        <v>64.35232495833864</v>
       </c>
       <c r="D27" t="n">
-        <v>58.22004716267976</v>
+        <v>52.62840752069112</v>
       </c>
       <c r="E27" t="n">
-        <v>63.63399721653959</v>
+        <v>55.15634555101312</v>
       </c>
       <c r="F27" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="28">
@@ -627,19 +639,19 @@
         <v>27.0</v>
       </c>
       <c r="B28" t="n">
-        <v>47.60874275019679</v>
+        <v>41.78381661680575</v>
       </c>
       <c r="C28" t="n">
-        <v>39.37788552994313</v>
+        <v>42.12396032896027</v>
       </c>
       <c r="D28" t="n">
-        <v>49.112662724893966</v>
+        <v>57.528682803139134</v>
       </c>
       <c r="E28" t="n">
-        <v>60.39448248345888</v>
+        <v>55.885700584916194</v>
       </c>
       <c r="F28" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="29">
@@ -647,19 +659,19 @@
         <v>28.0</v>
       </c>
       <c r="B29" t="n">
-        <v>40.05722470257521</v>
+        <v>49.357003005933954</v>
       </c>
       <c r="C29" t="n">
-        <v>41.725022176911864</v>
+        <v>58.5198157867701</v>
       </c>
       <c r="D29" t="n">
-        <v>37.54815014670262</v>
+        <v>52.54989174757415</v>
       </c>
       <c r="E29" t="n">
-        <v>51.320947697323774</v>
+        <v>64.01458670581168</v>
       </c>
       <c r="F29" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="30">
@@ -667,19 +679,19 @@
         <v>29.0</v>
       </c>
       <c r="B30" t="n">
-        <v>38.87645444251806</v>
+        <v>50.53662092311707</v>
       </c>
       <c r="C30" t="n">
-        <v>47.39239943237353</v>
+        <v>43.420214078961635</v>
       </c>
       <c r="D30" t="n">
-        <v>56.59936616999052</v>
+        <v>55.57699679036186</v>
       </c>
       <c r="E30" t="n">
-        <v>55.67199330542624</v>
+        <v>47.69880751043144</v>
       </c>
       <c r="F30" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="31">
@@ -687,16 +699,16 @@
         <v>30.0</v>
       </c>
       <c r="B31" t="n">
-        <v>37.78171537137874</v>
+        <v>58.12139370863634</v>
       </c>
       <c r="C31" t="n">
-        <v>47.63660696977641</v>
+        <v>59.790307718169245</v>
       </c>
       <c r="D31" t="n">
-        <v>39.846358745507565</v>
+        <v>40.11285808570254</v>
       </c>
       <c r="E31" t="n">
-        <v>48.46113701605261</v>
+        <v>49.59122442058538</v>
       </c>
       <c r="F31" t="n">
         <v>1.0</v>
@@ -707,19 +719,19 @@
         <v>31.0</v>
       </c>
       <c r="B32" t="n">
-        <v>71.63184844496482</v>
+        <v>34.22317356525145</v>
       </c>
       <c r="C32" t="n">
-        <v>51.222950333641805</v>
+        <v>48.2399776068613</v>
       </c>
       <c r="D32" t="n">
-        <v>56.241435832307175</v>
+        <v>56.24907825290077</v>
       </c>
       <c r="E32" t="n">
-        <v>50.26360285660882</v>
+        <v>58.45279727697512</v>
       </c>
       <c r="F32" t="n">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="33">
@@ -727,16 +739,16 @@
         <v>32.0</v>
       </c>
       <c r="B33" t="n">
-        <v>47.40205252627946</v>
+        <v>35.79114707056692</v>
       </c>
       <c r="C33" t="n">
-        <v>55.79622769308444</v>
+        <v>50.367462531459445</v>
       </c>
       <c r="D33" t="n">
-        <v>54.047434782034316</v>
+        <v>55.5344080845621</v>
       </c>
       <c r="E33" t="n">
-        <v>61.8828403133639</v>
+        <v>59.28743860190696</v>
       </c>
       <c r="F33" t="n">
         <v>2.0</v>
@@ -747,19 +759,19 @@
         <v>33.0</v>
       </c>
       <c r="B34" t="n">
-        <v>35.40182237082214</v>
+        <v>40.91514977083773</v>
       </c>
       <c r="C34" t="n">
-        <v>51.31170063208762</v>
+        <v>60.299579980510984</v>
       </c>
       <c r="D34" t="n">
-        <v>53.687548980266534</v>
+        <v>66.76979584130774</v>
       </c>
       <c r="E34" t="n">
-        <v>51.94458175830892</v>
+        <v>36.501016657017644</v>
       </c>
       <c r="F34" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="35">
@@ -767,19 +779,359 @@
         <v>34.0</v>
       </c>
       <c r="B35" t="n">
-        <v>45.583537804365875</v>
+        <v>62.706245911294786</v>
       </c>
       <c r="C35" t="n">
-        <v>17.922401632479684</v>
+        <v>47.631523249375114</v>
       </c>
       <c r="D35" t="n">
-        <v>58.48839957244923</v>
+        <v>49.90812156234581</v>
       </c>
       <c r="E35" t="n">
-        <v>41.28050569116239</v>
+        <v>49.033021704348094</v>
       </c>
       <c r="F35" t="n">
-        <v>4.0</v>
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>35.0</v>
+      </c>
+      <c r="B36" t="n">
+        <v>50.18843080480178</v>
+      </c>
+      <c r="C36" t="n">
+        <v>47.48924136610918</v>
+      </c>
+      <c r="D36" t="n">
+        <v>51.860974978289654</v>
+      </c>
+      <c r="E36" t="n">
+        <v>66.19582751964771</v>
+      </c>
+      <c r="F36" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>36.0</v>
+      </c>
+      <c r="B37" t="n">
+        <v>57.83097769278665</v>
+      </c>
+      <c r="C37" t="n">
+        <v>36.77531747040014</v>
+      </c>
+      <c r="D37" t="n">
+        <v>32.927100997603404</v>
+      </c>
+      <c r="E37" t="n">
+        <v>57.80182424157394</v>
+      </c>
+      <c r="F37" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>37.0</v>
+      </c>
+      <c r="B38" t="n">
+        <v>48.033514301868635</v>
+      </c>
+      <c r="C38" t="n">
+        <v>48.02665996704556</v>
+      </c>
+      <c r="D38" t="n">
+        <v>63.667952364353845</v>
+      </c>
+      <c r="E38" t="n">
+        <v>53.590534095091186</v>
+      </c>
+      <c r="F38" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>38.0</v>
+      </c>
+      <c r="B39" t="n">
+        <v>56.68787212779047</v>
+      </c>
+      <c r="C39" t="n">
+        <v>41.73417213008677</v>
+      </c>
+      <c r="D39" t="n">
+        <v>47.32073802422348</v>
+      </c>
+      <c r="E39" t="n">
+        <v>45.76901595093222</v>
+      </c>
+      <c r="F39" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>39.0</v>
+      </c>
+      <c r="B40" t="n">
+        <v>51.14954660649792</v>
+      </c>
+      <c r="C40" t="n">
+        <v>58.50254406625062</v>
+      </c>
+      <c r="D40" t="n">
+        <v>44.68530994212769</v>
+      </c>
+      <c r="E40" t="n">
+        <v>56.22218371279317</v>
+      </c>
+      <c r="F40" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>40.0</v>
+      </c>
+      <c r="B41" t="n">
+        <v>59.903571429658676</v>
+      </c>
+      <c r="C41" t="n">
+        <v>60.24275033233782</v>
+      </c>
+      <c r="D41" t="n">
+        <v>63.295033724531415</v>
+      </c>
+      <c r="E41" t="n">
+        <v>59.052389388547915</v>
+      </c>
+      <c r="F41" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>41.0</v>
+      </c>
+      <c r="B42" t="n">
+        <v>43.96293002323379</v>
+      </c>
+      <c r="C42" t="n">
+        <v>43.38742645511088</v>
+      </c>
+      <c r="D42" t="n">
+        <v>24.374182722406886</v>
+      </c>
+      <c r="E42" t="n">
+        <v>49.935769961936906</v>
+      </c>
+      <c r="F42" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>42.0</v>
+      </c>
+      <c r="B43" t="n">
+        <v>48.99956541330331</v>
+      </c>
+      <c r="C43" t="n">
+        <v>53.20455266679707</v>
+      </c>
+      <c r="D43" t="n">
+        <v>50.265640389268114</v>
+      </c>
+      <c r="E43" t="n">
+        <v>54.22626261398169</v>
+      </c>
+      <c r="F43" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>43.0</v>
+      </c>
+      <c r="B44" t="n">
+        <v>53.69177300310107</v>
+      </c>
+      <c r="C44" t="n">
+        <v>52.302771914741626</v>
+      </c>
+      <c r="D44" t="n">
+        <v>61.53052998812457</v>
+      </c>
+      <c r="E44" t="n">
+        <v>47.974053199223086</v>
+      </c>
+      <c r="F44" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>44.0</v>
+      </c>
+      <c r="B45" t="n">
+        <v>47.72628677882129</v>
+      </c>
+      <c r="C45" t="n">
+        <v>52.382290872141</v>
+      </c>
+      <c r="D45" t="n">
+        <v>54.45728502947254</v>
+      </c>
+      <c r="E45" t="n">
+        <v>30.162467746294976</v>
+      </c>
+      <c r="F45" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>45.0</v>
+      </c>
+      <c r="B46" t="n">
+        <v>44.777787908276196</v>
+      </c>
+      <c r="C46" t="n">
+        <v>52.296194324610234</v>
+      </c>
+      <c r="D46" t="n">
+        <v>39.12776539308022</v>
+      </c>
+      <c r="E46" t="n">
+        <v>46.10646177588749</v>
+      </c>
+      <c r="F46" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>46.0</v>
+      </c>
+      <c r="B47" t="n">
+        <v>61.85194704240674</v>
+      </c>
+      <c r="C47" t="n">
+        <v>59.830246300441175</v>
+      </c>
+      <c r="D47" t="n">
+        <v>47.94944450478573</v>
+      </c>
+      <c r="E47" t="n">
+        <v>31.11980983327519</v>
+      </c>
+      <c r="F47" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>47.0</v>
+      </c>
+      <c r="B48" t="n">
+        <v>46.081720146934146</v>
+      </c>
+      <c r="C48" t="n">
+        <v>35.55861649371536</v>
+      </c>
+      <c r="D48" t="n">
+        <v>61.12435988477591</v>
+      </c>
+      <c r="E48" t="n">
+        <v>81.63627977216112</v>
+      </c>
+      <c r="F48" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>48.0</v>
+      </c>
+      <c r="B49" t="n">
+        <v>53.907285086795326</v>
+      </c>
+      <c r="C49" t="n">
+        <v>28.168745197738126</v>
+      </c>
+      <c r="D49" t="n">
+        <v>40.89107321668646</v>
+      </c>
+      <c r="E49" t="n">
+        <v>42.020998383803345</v>
+      </c>
+      <c r="F49" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>49.0</v>
+      </c>
+      <c r="B50" t="n">
+        <v>48.804700037882455</v>
+      </c>
+      <c r="C50" t="n">
+        <v>49.62943235963579</v>
+      </c>
+      <c r="D50" t="n">
+        <v>47.07005832933263</v>
+      </c>
+      <c r="E50" t="n">
+        <v>57.68039829705475</v>
+      </c>
+      <c r="F50" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="B51" t="n">
+        <v>45.7182604261162</v>
+      </c>
+      <c r="C51" t="n">
+        <v>32.81028772814109</v>
+      </c>
+      <c r="D51" t="n">
+        <v>57.81836029125457</v>
+      </c>
+      <c r="E51" t="n">
+        <v>52.327040984527514</v>
+      </c>
+      <c r="F51" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>51.0</v>
+      </c>
+      <c r="B52" t="n">
+        <v>38.70059905075824</v>
+      </c>
+      <c r="C52" t="n">
+        <v>47.11051799295165</v>
+      </c>
+      <c r="D52" t="n">
+        <v>40.15546097472426</v>
+      </c>
+      <c r="E52" t="n">
+        <v>61.12910782078088</v>
+      </c>
+      <c r="F52" t="n">
+        <v>2.0</v>
       </c>
     </row>
   </sheetData>
@@ -811,22 +1163,52 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
         <v>1.0</v>
       </c>
       <c r="B2" t="n">
-        <v>44.04515192824928</v>
+        <v>54.95819650172564</v>
       </c>
       <c r="C2" t="n">
-        <v>59.06826533288803</v>
+        <v>67.38267538707002</v>
       </c>
       <c r="D2" t="n">
-        <v>33.23195986632316</v>
+        <v>62.30263610697483</v>
       </c>
       <c r="E2" t="n">
-        <v>3.0</v>
+        <v>41.921492368196546</v>
+      </c>
+      <c r="F2" t="n">
+        <v>61.60466006474726</v>
+      </c>
+      <c r="G2" t="n">
+        <v>54.66392756530129</v>
+      </c>
+      <c r="H2" t="n">
+        <v>35.06842021879112</v>
+      </c>
+      <c r="I2" t="n">
+        <v>54.21209807196686</v>
+      </c>
+      <c r="J2" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="3">
@@ -834,16 +1216,31 @@
         <v>2.0</v>
       </c>
       <c r="B3" t="n">
-        <v>51.10152881697938</v>
+        <v>24.58430861907166</v>
       </c>
       <c r="C3" t="n">
-        <v>36.788923476795574</v>
+        <v>41.64690610465607</v>
       </c>
       <c r="D3" t="n">
-        <v>56.18542731505967</v>
+        <v>46.572604539673584</v>
       </c>
       <c r="E3" t="n">
-        <v>2.0</v>
+        <v>72.95299013681007</v>
+      </c>
+      <c r="F3" t="n">
+        <v>54.39212021380202</v>
+      </c>
+      <c r="G3" t="n">
+        <v>53.69817709272551</v>
+      </c>
+      <c r="H3" t="n">
+        <v>44.52830587941465</v>
+      </c>
+      <c r="I3" t="n">
+        <v>33.07186330334184</v>
+      </c>
+      <c r="J3" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="4">
@@ -851,15 +1248,30 @@
         <v>3.0</v>
       </c>
       <c r="B4" t="n">
-        <v>39.216781556289135</v>
+        <v>51.58359811317498</v>
       </c>
       <c r="C4" t="n">
-        <v>42.98541097615367</v>
+        <v>55.817513867699404</v>
       </c>
       <c r="D4" t="n">
-        <v>53.90659332483776</v>
+        <v>54.85519330386497</v>
       </c>
       <c r="E4" t="n">
+        <v>45.30741188839129</v>
+      </c>
+      <c r="F4" t="n">
+        <v>49.8370979425765</v>
+      </c>
+      <c r="G4" t="n">
+        <v>44.30425080255583</v>
+      </c>
+      <c r="H4" t="n">
+        <v>68.47628600621582</v>
+      </c>
+      <c r="I4" t="n">
+        <v>55.458589797237636</v>
+      </c>
+      <c r="J4" t="n">
         <v>1.0</v>
       </c>
     </row>
@@ -868,16 +1280,31 @@
         <v>4.0</v>
       </c>
       <c r="B5" t="n">
-        <v>69.23966878305606</v>
+        <v>54.89600016972627</v>
       </c>
       <c r="C5" t="n">
-        <v>41.46169770971099</v>
+        <v>42.52802303951209</v>
       </c>
       <c r="D5" t="n">
-        <v>46.568443702426364</v>
+        <v>49.93923810027023</v>
       </c>
       <c r="E5" t="n">
-        <v>2.0</v>
+        <v>58.662868850459674</v>
+      </c>
+      <c r="F5" t="n">
+        <v>34.93486433363645</v>
+      </c>
+      <c r="G5" t="n">
+        <v>45.4065490429176</v>
+      </c>
+      <c r="H5" t="n">
+        <v>51.29861583853994</v>
+      </c>
+      <c r="I5" t="n">
+        <v>54.543041678819634</v>
+      </c>
+      <c r="J5" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="6">
@@ -885,15 +1312,30 @@
         <v>5.0</v>
       </c>
       <c r="B6" t="n">
-        <v>37.984344947754494</v>
+        <v>56.55333156247146</v>
       </c>
       <c r="C6" t="n">
-        <v>58.85504314692045</v>
+        <v>60.13792609476833</v>
       </c>
       <c r="D6" t="n">
-        <v>85.5970768931717</v>
+        <v>56.39313373800894</v>
       </c>
       <c r="E6" t="n">
+        <v>54.315555885193405</v>
+      </c>
+      <c r="F6" t="n">
+        <v>48.005044108778975</v>
+      </c>
+      <c r="G6" t="n">
+        <v>63.71570303656222</v>
+      </c>
+      <c r="H6" t="n">
+        <v>34.3267059716708</v>
+      </c>
+      <c r="I6" t="n">
+        <v>47.38008556757604</v>
+      </c>
+      <c r="J6" t="n">
         <v>1.0</v>
       </c>
     </row>
@@ -902,15 +1344,30 @@
         <v>6.0</v>
       </c>
       <c r="B7" t="n">
-        <v>47.65951176466946</v>
+        <v>51.25327167368881</v>
       </c>
       <c r="C7" t="n">
-        <v>49.72549061319277</v>
+        <v>50.236724756524275</v>
       </c>
       <c r="D7" t="n">
-        <v>31.3882726884846</v>
+        <v>47.19270723534953</v>
       </c>
       <c r="E7" t="n">
+        <v>69.33431499606608</v>
+      </c>
+      <c r="F7" t="n">
+        <v>60.66702947342869</v>
+      </c>
+      <c r="G7" t="n">
+        <v>30.970265238740808</v>
+      </c>
+      <c r="H7" t="n">
+        <v>32.03597392821155</v>
+      </c>
+      <c r="I7" t="n">
+        <v>54.335433881370484</v>
+      </c>
+      <c r="J7" t="n">
         <v>1.0</v>
       </c>
     </row>
@@ -919,15 +1376,30 @@
         <v>7.0</v>
       </c>
       <c r="B8" t="n">
-        <v>46.53784368370892</v>
+        <v>50.525347505783586</v>
       </c>
       <c r="C8" t="n">
-        <v>54.26586217595934</v>
+        <v>50.14799992379688</v>
       </c>
       <c r="D8" t="n">
-        <v>56.490622467437525</v>
+        <v>51.237997709052934</v>
       </c>
       <c r="E8" t="n">
+        <v>65.08201062159009</v>
+      </c>
+      <c r="F8" t="n">
+        <v>34.456978416246585</v>
+      </c>
+      <c r="G8" t="n">
+        <v>50.606953046813786</v>
+      </c>
+      <c r="H8" t="n">
+        <v>36.57692403942544</v>
+      </c>
+      <c r="I8" t="n">
+        <v>59.60969356168533</v>
+      </c>
+      <c r="J8" t="n">
         <v>1.0</v>
       </c>
     </row>
@@ -936,15 +1408,30 @@
         <v>8.0</v>
       </c>
       <c r="B9" t="n">
-        <v>13.648246474666806</v>
+        <v>41.73173689983201</v>
       </c>
       <c r="C9" t="n">
-        <v>63.56787512247165</v>
+        <v>49.54325103704617</v>
       </c>
       <c r="D9" t="n">
-        <v>37.95521395229578</v>
+        <v>55.40836659216205</v>
       </c>
       <c r="E9" t="n">
+        <v>50.244200758608386</v>
+      </c>
+      <c r="F9" t="n">
+        <v>45.97880235364304</v>
+      </c>
+      <c r="G9" t="n">
+        <v>50.28999928619267</v>
+      </c>
+      <c r="H9" t="n">
+        <v>54.7832445649096</v>
+      </c>
+      <c r="I9" t="n">
+        <v>56.7317059911677</v>
+      </c>
+      <c r="J9" t="n">
         <v>1.0</v>
       </c>
     </row>
@@ -953,16 +1440,31 @@
         <v>9.0</v>
       </c>
       <c r="B10" t="n">
-        <v>40.84399323232204</v>
+        <v>32.40071474905237</v>
       </c>
       <c r="C10" t="n">
-        <v>63.91917750416645</v>
+        <v>50.51438186138977</v>
       </c>
       <c r="D10" t="n">
-        <v>55.31457324208899</v>
+        <v>43.95303321029746</v>
       </c>
       <c r="E10" t="n">
-        <v>4.0</v>
+        <v>44.685153329298814</v>
+      </c>
+      <c r="F10" t="n">
+        <v>42.022229330387944</v>
+      </c>
+      <c r="G10" t="n">
+        <v>43.129046668067566</v>
+      </c>
+      <c r="H10" t="n">
+        <v>59.50781736492253</v>
+      </c>
+      <c r="I10" t="n">
+        <v>50.142563743235556</v>
+      </c>
+      <c r="J10" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="11">
@@ -970,15 +1472,30 @@
         <v>10.0</v>
       </c>
       <c r="B11" t="n">
-        <v>57.003632770541444</v>
+        <v>54.91550594135214</v>
       </c>
       <c r="C11" t="n">
-        <v>36.86214336279077</v>
+        <v>60.09042723986559</v>
       </c>
       <c r="D11" t="n">
-        <v>70.65600385206292</v>
+        <v>44.809563965196574</v>
       </c>
       <c r="E11" t="n">
+        <v>50.7116212186892</v>
+      </c>
+      <c r="F11" t="n">
+        <v>41.34910109721477</v>
+      </c>
+      <c r="G11" t="n">
+        <v>51.859192516837574</v>
+      </c>
+      <c r="H11" t="n">
+        <v>57.63634018986107</v>
+      </c>
+      <c r="I11" t="n">
+        <v>60.16493313405207</v>
+      </c>
+      <c r="J11" t="n">
         <v>1.0</v>
       </c>
     </row>
@@ -987,16 +1504,31 @@
         <v>11.0</v>
       </c>
       <c r="B12" t="n">
-        <v>45.10347380572967</v>
+        <v>50.79528423856397</v>
       </c>
       <c r="C12" t="n">
-        <v>45.53993475115583</v>
+        <v>50.783818677481406</v>
       </c>
       <c r="D12" t="n">
-        <v>55.27963494503301</v>
+        <v>42.291566572420386</v>
       </c>
       <c r="E12" t="n">
-        <v>2.0</v>
+        <v>55.190743321783245</v>
+      </c>
+      <c r="F12" t="n">
+        <v>50.336660677149226</v>
+      </c>
+      <c r="G12" t="n">
+        <v>50.48765276712825</v>
+      </c>
+      <c r="H12" t="n">
+        <v>60.377906939350716</v>
+      </c>
+      <c r="I12" t="n">
+        <v>47.74426529635381</v>
+      </c>
+      <c r="J12" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="13">
@@ -1004,16 +1536,31 @@
         <v>12.0</v>
       </c>
       <c r="B13" t="n">
-        <v>48.215782997711564</v>
+        <v>44.232555072322505</v>
       </c>
       <c r="C13" t="n">
-        <v>35.00175129734444</v>
+        <v>42.76119404636238</v>
       </c>
       <c r="D13" t="n">
-        <v>46.24659838437156</v>
+        <v>45.74610748833663</v>
       </c>
       <c r="E13" t="n">
-        <v>3.0</v>
+        <v>51.99193425315581</v>
+      </c>
+      <c r="F13" t="n">
+        <v>50.100497834794304</v>
+      </c>
+      <c r="G13" t="n">
+        <v>48.54501270433983</v>
+      </c>
+      <c r="H13" t="n">
+        <v>37.248607183861914</v>
+      </c>
+      <c r="I13" t="n">
+        <v>46.18238662799262</v>
+      </c>
+      <c r="J13" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="14">
@@ -1021,15 +1568,30 @@
         <v>13.0</v>
       </c>
       <c r="B14" t="n">
-        <v>54.37448498670215</v>
+        <v>54.872597664336425</v>
       </c>
       <c r="C14" t="n">
-        <v>63.51191271312925</v>
+        <v>57.373272314872196</v>
       </c>
       <c r="D14" t="n">
-        <v>42.82346195555219</v>
+        <v>51.98438382673944</v>
       </c>
       <c r="E14" t="n">
+        <v>62.19399209719653</v>
+      </c>
+      <c r="F14" t="n">
+        <v>51.19570003671535</v>
+      </c>
+      <c r="G14" t="n">
+        <v>47.52916872028225</v>
+      </c>
+      <c r="H14" t="n">
+        <v>34.83634066270777</v>
+      </c>
+      <c r="I14" t="n">
+        <v>65.29025192883103</v>
+      </c>
+      <c r="J14" t="n">
         <v>1.0</v>
       </c>
     </row>
@@ -1038,16 +1600,31 @@
         <v>14.0</v>
       </c>
       <c r="B15" t="n">
-        <v>41.63818353018224</v>
+        <v>52.28353262129412</v>
       </c>
       <c r="C15" t="n">
-        <v>57.24455468189972</v>
+        <v>36.597327637292686</v>
       </c>
       <c r="D15" t="n">
-        <v>23.756237157612876</v>
+        <v>52.44489337342754</v>
       </c>
       <c r="E15" t="n">
-        <v>2.0</v>
+        <v>53.47150622941404</v>
+      </c>
+      <c r="F15" t="n">
+        <v>36.193418622674265</v>
+      </c>
+      <c r="G15" t="n">
+        <v>65.34839748985448</v>
+      </c>
+      <c r="H15" t="n">
+        <v>66.59458961317388</v>
+      </c>
+      <c r="I15" t="n">
+        <v>58.65580985536715</v>
+      </c>
+      <c r="J15" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="16">
@@ -1055,15 +1632,30 @@
         <v>15.0</v>
       </c>
       <c r="B16" t="n">
-        <v>44.819674383684834</v>
+        <v>63.55893142108087</v>
       </c>
       <c r="C16" t="n">
-        <v>60.831063933407684</v>
+        <v>48.86875310615454</v>
       </c>
       <c r="D16" t="n">
-        <v>56.31958022137708</v>
+        <v>61.55313747680955</v>
       </c>
       <c r="E16" t="n">
+        <v>52.61035769998725</v>
+      </c>
+      <c r="F16" t="n">
+        <v>52.30149035448387</v>
+      </c>
+      <c r="G16" t="n">
+        <v>33.293684061705875</v>
+      </c>
+      <c r="H16" t="n">
+        <v>60.292209792885686</v>
+      </c>
+      <c r="I16" t="n">
+        <v>43.362300612827156</v>
+      </c>
+      <c r="J16" t="n">
         <v>1.0</v>
       </c>
     </row>
@@ -1072,16 +1664,31 @@
         <v>16.0</v>
       </c>
       <c r="B17" t="n">
-        <v>28.47054645364187</v>
+        <v>41.84616754383761</v>
       </c>
       <c r="C17" t="n">
-        <v>49.962489544141924</v>
+        <v>53.000840100971885</v>
       </c>
       <c r="D17" t="n">
-        <v>31.103783639406867</v>
+        <v>47.08486204361978</v>
       </c>
       <c r="E17" t="n">
-        <v>3.0</v>
+        <v>55.330643344962134</v>
+      </c>
+      <c r="F17" t="n">
+        <v>54.812621629277025</v>
+      </c>
+      <c r="G17" t="n">
+        <v>54.53156720672119</v>
+      </c>
+      <c r="H17" t="n">
+        <v>51.19137130621581</v>
+      </c>
+      <c r="I17" t="n">
+        <v>42.58610749661676</v>
+      </c>
+      <c r="J17" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="18">
@@ -1089,16 +1696,31 @@
         <v>17.0</v>
       </c>
       <c r="B18" t="n">
-        <v>62.091321605042396</v>
+        <v>54.7554129026769</v>
       </c>
       <c r="C18" t="n">
-        <v>32.58022632262956</v>
+        <v>53.712621159279415</v>
       </c>
       <c r="D18" t="n">
-        <v>46.04886061592413</v>
+        <v>37.34348932279457</v>
       </c>
       <c r="E18" t="n">
-        <v>2.0</v>
+        <v>57.54391930740118</v>
+      </c>
+      <c r="F18" t="n">
+        <v>59.17319708676512</v>
+      </c>
+      <c r="G18" t="n">
+        <v>51.18817926215345</v>
+      </c>
+      <c r="H18" t="n">
+        <v>69.09008829275436</v>
+      </c>
+      <c r="I18" t="n">
+        <v>67.57752514260741</v>
+      </c>
+      <c r="J18" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="19">
@@ -1106,15 +1728,30 @@
         <v>18.0</v>
       </c>
       <c r="B19" t="n">
-        <v>42.993107154756416</v>
+        <v>43.22417861475463</v>
       </c>
       <c r="C19" t="n">
-        <v>41.63270439540416</v>
+        <v>53.44561635193097</v>
       </c>
       <c r="D19" t="n">
-        <v>37.487641135776634</v>
+        <v>37.051875483857096</v>
       </c>
       <c r="E19" t="n">
+        <v>76.20452401103992</v>
+      </c>
+      <c r="F19" t="n">
+        <v>27.100576454076773</v>
+      </c>
+      <c r="G19" t="n">
+        <v>47.62423450862983</v>
+      </c>
+      <c r="H19" t="n">
+        <v>45.73388416342925</v>
+      </c>
+      <c r="I19" t="n">
+        <v>49.64546138796507</v>
+      </c>
+      <c r="J19" t="n">
         <v>1.0</v>
       </c>
     </row>
@@ -1123,16 +1760,31 @@
         <v>19.0</v>
       </c>
       <c r="B20" t="n">
-        <v>51.18436302743567</v>
+        <v>50.759892736551976</v>
       </c>
       <c r="C20" t="n">
-        <v>42.802022787818224</v>
+        <v>52.291268258251634</v>
       </c>
       <c r="D20" t="n">
-        <v>48.43031627770506</v>
+        <v>50.26866826390178</v>
       </c>
       <c r="E20" t="n">
-        <v>3.0</v>
+        <v>51.731162603179946</v>
+      </c>
+      <c r="F20" t="n">
+        <v>35.85160492239576</v>
+      </c>
+      <c r="G20" t="n">
+        <v>49.51759893824114</v>
+      </c>
+      <c r="H20" t="n">
+        <v>38.4844559055945</v>
+      </c>
+      <c r="I20" t="n">
+        <v>52.56955644304023</v>
+      </c>
+      <c r="J20" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="21">
@@ -1140,16 +1792,31 @@
         <v>20.0</v>
       </c>
       <c r="B21" t="n">
-        <v>43.359251466501114</v>
+        <v>46.533482413968876</v>
       </c>
       <c r="C21" t="n">
-        <v>43.44275255001018</v>
+        <v>55.63034916765368</v>
       </c>
       <c r="D21" t="n">
-        <v>71.08690302551072</v>
+        <v>42.69304144482672</v>
       </c>
       <c r="E21" t="n">
-        <v>3.0</v>
+        <v>56.47116000515942</v>
+      </c>
+      <c r="F21" t="n">
+        <v>63.54001051113215</v>
+      </c>
+      <c r="G21" t="n">
+        <v>42.7395910972559</v>
+      </c>
+      <c r="H21" t="n">
+        <v>51.28001960732878</v>
+      </c>
+      <c r="I21" t="n">
+        <v>43.07049316647649</v>
+      </c>
+      <c r="J21" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="22">
@@ -1157,15 +1824,30 @@
         <v>21.0</v>
       </c>
       <c r="B22" t="n">
-        <v>43.80711446107891</v>
+        <v>41.91542696881234</v>
       </c>
       <c r="C22" t="n">
-        <v>47.794015943077724</v>
+        <v>63.92708547205338</v>
       </c>
       <c r="D22" t="n">
-        <v>48.72218925076121</v>
+        <v>54.21973199671577</v>
       </c>
       <c r="E22" t="n">
+        <v>42.93005395352853</v>
+      </c>
+      <c r="F22" t="n">
+        <v>54.163512873212696</v>
+      </c>
+      <c r="G22" t="n">
+        <v>43.127614646780984</v>
+      </c>
+      <c r="H22" t="n">
+        <v>37.760136798572965</v>
+      </c>
+      <c r="I22" t="n">
+        <v>70.91591515472147</v>
+      </c>
+      <c r="J22" t="n">
         <v>1.0</v>
       </c>
     </row>
@@ -1174,16 +1856,31 @@
         <v>22.0</v>
       </c>
       <c r="B23" t="n">
-        <v>31.482719231447465</v>
+        <v>53.771015344002066</v>
       </c>
       <c r="C23" t="n">
-        <v>51.676429322478846</v>
+        <v>42.60477959699908</v>
       </c>
       <c r="D23" t="n">
-        <v>59.3942518416896</v>
+        <v>48.9776641016874</v>
       </c>
       <c r="E23" t="n">
-        <v>4.0</v>
+        <v>59.22686557739109</v>
+      </c>
+      <c r="F23" t="n">
+        <v>59.008491370116076</v>
+      </c>
+      <c r="G23" t="n">
+        <v>56.60124724582697</v>
+      </c>
+      <c r="H23" t="n">
+        <v>51.60696816878682</v>
+      </c>
+      <c r="I23" t="n">
+        <v>56.09332308470186</v>
+      </c>
+      <c r="J23" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="24">
@@ -1191,16 +1888,31 @@
         <v>23.0</v>
       </c>
       <c r="B24" t="n">
-        <v>52.479252580539054</v>
+        <v>76.49591762416172</v>
       </c>
       <c r="C24" t="n">
-        <v>50.20722428165436</v>
+        <v>61.14752543460025</v>
       </c>
       <c r="D24" t="n">
-        <v>58.68985181413139</v>
+        <v>23.232302927614242</v>
       </c>
       <c r="E24" t="n">
-        <v>4.0</v>
+        <v>46.3334815337228</v>
+      </c>
+      <c r="F24" t="n">
+        <v>56.19932525675759</v>
+      </c>
+      <c r="G24" t="n">
+        <v>41.5119622095359</v>
+      </c>
+      <c r="H24" t="n">
+        <v>48.14775349607873</v>
+      </c>
+      <c r="I24" t="n">
+        <v>52.07415021950541</v>
+      </c>
+      <c r="J24" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="25">
@@ -1208,16 +1920,31 @@
         <v>24.0</v>
       </c>
       <c r="B25" t="n">
-        <v>45.74268024473459</v>
+        <v>41.29071851345112</v>
       </c>
       <c r="C25" t="n">
-        <v>59.8672087291889</v>
+        <v>31.321594493657088</v>
       </c>
       <c r="D25" t="n">
-        <v>63.31139608545808</v>
+        <v>45.29569374864124</v>
       </c>
       <c r="E25" t="n">
-        <v>2.0</v>
+        <v>57.050772719156924</v>
+      </c>
+      <c r="F25" t="n">
+        <v>46.37979599518376</v>
+      </c>
+      <c r="G25" t="n">
+        <v>29.80093592033597</v>
+      </c>
+      <c r="H25" t="n">
+        <v>40.78064964436354</v>
+      </c>
+      <c r="I25" t="n">
+        <v>70.20360804925954</v>
+      </c>
+      <c r="J25" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="26">
@@ -1225,16 +1952,31 @@
         <v>25.0</v>
       </c>
       <c r="B26" t="n">
-        <v>37.25936985689181</v>
+        <v>62.770164034474064</v>
       </c>
       <c r="C26" t="n">
-        <v>33.43172748655844</v>
+        <v>48.16974180208856</v>
       </c>
       <c r="D26" t="n">
-        <v>51.619243114284444</v>
+        <v>70.664807593019</v>
       </c>
       <c r="E26" t="n">
-        <v>4.0</v>
+        <v>38.07895572730577</v>
+      </c>
+      <c r="F26" t="n">
+        <v>38.83031717500148</v>
+      </c>
+      <c r="G26" t="n">
+        <v>54.3345306010136</v>
+      </c>
+      <c r="H26" t="n">
+        <v>53.191385754507024</v>
+      </c>
+      <c r="I26" t="n">
+        <v>47.81713652757836</v>
+      </c>
+      <c r="J26" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="27">
@@ -1242,15 +1984,30 @@
         <v>26.0</v>
       </c>
       <c r="B27" t="n">
-        <v>53.18747258010533</v>
+        <v>54.134431414276406</v>
       </c>
       <c r="C27" t="n">
-        <v>39.85533479436533</v>
+        <v>48.571863214439226</v>
       </c>
       <c r="D27" t="n">
-        <v>45.11106389432786</v>
+        <v>50.67240248356852</v>
       </c>
       <c r="E27" t="n">
+        <v>57.93325399415667</v>
+      </c>
+      <c r="F27" t="n">
+        <v>54.00898174543712</v>
+      </c>
+      <c r="G27" t="n">
+        <v>50.88825476121079</v>
+      </c>
+      <c r="H27" t="n">
+        <v>39.22106127305567</v>
+      </c>
+      <c r="I27" t="n">
+        <v>44.14424219459026</v>
+      </c>
+      <c r="J27" t="n">
         <v>1.0</v>
       </c>
     </row>
@@ -1259,16 +2016,31 @@
         <v>27.0</v>
       </c>
       <c r="B28" t="n">
-        <v>49.974916915676616</v>
+        <v>54.13295709374947</v>
       </c>
       <c r="C28" t="n">
-        <v>43.25265151512759</v>
+        <v>61.659498152815885</v>
       </c>
       <c r="D28" t="n">
-        <v>54.84772695953349</v>
+        <v>47.036161791840186</v>
       </c>
       <c r="E28" t="n">
-        <v>4.0</v>
+        <v>40.237064343529816</v>
+      </c>
+      <c r="F28" t="n">
+        <v>56.42799822718028</v>
+      </c>
+      <c r="G28" t="n">
+        <v>37.98157525633482</v>
+      </c>
+      <c r="H28" t="n">
+        <v>61.451296122555206</v>
+      </c>
+      <c r="I28" t="n">
+        <v>27.900213181138426</v>
+      </c>
+      <c r="J28" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="29">
@@ -1276,16 +2048,31 @@
         <v>28.0</v>
       </c>
       <c r="B29" t="n">
-        <v>55.73760392576591</v>
+        <v>58.365913414769665</v>
       </c>
       <c r="C29" t="n">
-        <v>29.4497837053368</v>
+        <v>41.744206348753096</v>
       </c>
       <c r="D29" t="n">
-        <v>52.06405376589274</v>
+        <v>33.241763605938644</v>
       </c>
       <c r="E29" t="n">
-        <v>2.0</v>
+        <v>37.672698949046506</v>
+      </c>
+      <c r="F29" t="n">
+        <v>42.03483495963878</v>
+      </c>
+      <c r="G29" t="n">
+        <v>62.13391835039067</v>
+      </c>
+      <c r="H29" t="n">
+        <v>53.73700012703305</v>
+      </c>
+      <c r="I29" t="n">
+        <v>28.41932694112328</v>
+      </c>
+      <c r="J29" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="30">
@@ -1293,16 +2080,31 @@
         <v>29.0</v>
       </c>
       <c r="B30" t="n">
-        <v>54.34460505500878</v>
+        <v>48.239744552768464</v>
       </c>
       <c r="C30" t="n">
-        <v>28.892753314588443</v>
+        <v>64.6635101381456</v>
       </c>
       <c r="D30" t="n">
-        <v>49.70436711928958</v>
+        <v>57.00501115352444</v>
       </c>
       <c r="E30" t="n">
-        <v>4.0</v>
+        <v>49.838849852620676</v>
+      </c>
+      <c r="F30" t="n">
+        <v>49.196010835931276</v>
+      </c>
+      <c r="G30" t="n">
+        <v>50.423355257388764</v>
+      </c>
+      <c r="H30" t="n">
+        <v>42.74316905610495</v>
+      </c>
+      <c r="I30" t="n">
+        <v>51.434114069199275</v>
+      </c>
+      <c r="J30" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="31">
@@ -1310,15 +2112,30 @@
         <v>30.0</v>
       </c>
       <c r="B31" t="n">
-        <v>51.07181835586786</v>
+        <v>40.757747500107214</v>
       </c>
       <c r="C31" t="n">
-        <v>43.72866530036232</v>
+        <v>45.92353770659062</v>
       </c>
       <c r="D31" t="n">
-        <v>37.573087837436674</v>
+        <v>41.14404555976618</v>
       </c>
       <c r="E31" t="n">
+        <v>49.99691386071402</v>
+      </c>
+      <c r="F31" t="n">
+        <v>45.80799032925043</v>
+      </c>
+      <c r="G31" t="n">
+        <v>53.218451888880736</v>
+      </c>
+      <c r="H31" t="n">
+        <v>52.67471972419367</v>
+      </c>
+      <c r="I31" t="n">
+        <v>60.63721036722785</v>
+      </c>
+      <c r="J31" t="n">
         <v>1.0</v>
       </c>
     </row>
@@ -1327,16 +2144,31 @@
         <v>31.0</v>
       </c>
       <c r="B32" t="n">
-        <v>53.01060301340733</v>
+        <v>73.1747672898973</v>
       </c>
       <c r="C32" t="n">
-        <v>33.00136878699237</v>
+        <v>57.61918746993835</v>
       </c>
       <c r="D32" t="n">
-        <v>51.64447874975491</v>
+        <v>48.95948108779698</v>
       </c>
       <c r="E32" t="n">
-        <v>4.0</v>
+        <v>49.60514353818095</v>
+      </c>
+      <c r="F32" t="n">
+        <v>32.22012881731209</v>
+      </c>
+      <c r="G32" t="n">
+        <v>40.72452774398144</v>
+      </c>
+      <c r="H32" t="n">
+        <v>57.460970293762884</v>
+      </c>
+      <c r="I32" t="n">
+        <v>50.83433661911337</v>
+      </c>
+      <c r="J32" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="33">
@@ -1344,101 +2176,31 @@
         <v>32.0</v>
       </c>
       <c r="B33" t="n">
-        <v>61.11181436709049</v>
+        <v>46.54543287994138</v>
       </c>
       <c r="C33" t="n">
-        <v>59.04603828792722</v>
+        <v>56.859392230364875</v>
       </c>
       <c r="D33" t="n">
-        <v>46.34220639295784</v>
+        <v>47.141862791874836</v>
       </c>
       <c r="E33" t="n">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="n">
-        <v>33.0</v>
-      </c>
-      <c r="B34" t="n">
-        <v>51.34548231095466</v>
-      </c>
-      <c r="C34" t="n">
-        <v>38.387470427875144</v>
-      </c>
-      <c r="D34" t="n">
-        <v>60.74047075710912</v>
-      </c>
-      <c r="E34" t="n">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="n">
-        <v>34.0</v>
-      </c>
-      <c r="B35" t="n">
-        <v>29.781407509182685</v>
-      </c>
-      <c r="C35" t="n">
-        <v>49.580106624093865</v>
-      </c>
-      <c r="D35" t="n">
-        <v>48.109311388828836</v>
-      </c>
-      <c r="E35" t="n">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="n">
-        <v>35.0</v>
-      </c>
-      <c r="B36" t="n">
-        <v>37.203435463996215</v>
-      </c>
-      <c r="C36" t="n">
-        <v>56.848217700380374</v>
-      </c>
-      <c r="D36" t="n">
-        <v>64.1601890542306</v>
-      </c>
-      <c r="E36" t="n">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="n">
-        <v>36.0</v>
-      </c>
-      <c r="B37" t="n">
-        <v>61.230817920850555</v>
-      </c>
-      <c r="C37" t="n">
-        <v>43.71606779472198</v>
-      </c>
-      <c r="D37" t="n">
-        <v>41.061171512381975</v>
-      </c>
-      <c r="E37" t="n">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="n">
-        <v>37.0</v>
-      </c>
-      <c r="B38" t="n">
-        <v>66.50069331377107</v>
-      </c>
-      <c r="C38" t="n">
-        <v>45.796491539502426</v>
-      </c>
-      <c r="D38" t="n">
-        <v>35.485773979089416</v>
-      </c>
-      <c r="E38" t="n">
-        <v>2.0</v>
+        <v>54.77896194571658</v>
+      </c>
+      <c r="F33" t="n">
+        <v>52.34038168145511</v>
+      </c>
+      <c r="G33" t="n">
+        <v>44.40029481332965</v>
+      </c>
+      <c r="H33" t="n">
+        <v>39.77278004940458</v>
+      </c>
+      <c r="I33" t="n">
+        <v>14.601927310340642</v>
+      </c>
+      <c r="J33" t="n">
+        <v>1.0</v>
       </c>
     </row>
   </sheetData>
@@ -1479,19 +2241,19 @@
         <v>1.0</v>
       </c>
       <c r="B2" t="n">
-        <v>36.903607756223884</v>
+        <v>44.08533714301938</v>
       </c>
       <c r="C2" t="n">
-        <v>45.069068133698956</v>
+        <v>58.69528402734986</v>
       </c>
       <c r="D2" t="n">
-        <v>64.51516247032262</v>
+        <v>40.36766755546611</v>
       </c>
       <c r="E2" t="n">
-        <v>57.498010689237375</v>
+        <v>52.49414428125043</v>
       </c>
       <c r="F2" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="3">
@@ -1499,19 +2261,19 @@
         <v>2.0</v>
       </c>
       <c r="B3" t="n">
-        <v>54.30008753565541</v>
+        <v>45.69091284536264</v>
       </c>
       <c r="C3" t="n">
-        <v>49.488077627626076</v>
+        <v>49.433234706978375</v>
       </c>
       <c r="D3" t="n">
-        <v>54.357714755693856</v>
+        <v>48.795281829616364</v>
       </c>
       <c r="E3" t="n">
-        <v>30.41539117661688</v>
+        <v>48.84148597192996</v>
       </c>
       <c r="F3" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="4">
@@ -1519,16 +2281,16 @@
         <v>3.0</v>
       </c>
       <c r="B4" t="n">
-        <v>61.19806622143081</v>
+        <v>58.34919980707011</v>
       </c>
       <c r="C4" t="n">
-        <v>68.95763720030762</v>
+        <v>40.14118180736497</v>
       </c>
       <c r="D4" t="n">
-        <v>45.99711823106543</v>
+        <v>27.119150985881824</v>
       </c>
       <c r="E4" t="n">
-        <v>54.83450160663217</v>
+        <v>47.206785258472664</v>
       </c>
       <c r="F4" t="n">
         <v>1.0</v>
@@ -1539,19 +2301,19 @@
         <v>4.0</v>
       </c>
       <c r="B5" t="n">
-        <v>39.2618184109387</v>
+        <v>66.94896164606705</v>
       </c>
       <c r="C5" t="n">
-        <v>50.40834101519024</v>
+        <v>44.71943052151759</v>
       </c>
       <c r="D5" t="n">
-        <v>52.288603510192665</v>
+        <v>40.20835668902253</v>
       </c>
       <c r="E5" t="n">
-        <v>50.45043578975772</v>
+        <v>44.4589988213242</v>
       </c>
       <c r="F5" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="6">
@@ -1559,19 +2321,19 @@
         <v>5.0</v>
       </c>
       <c r="B6" t="n">
-        <v>48.46458964747894</v>
+        <v>69.87124900847579</v>
       </c>
       <c r="C6" t="n">
-        <v>44.68441891578754</v>
+        <v>69.72760884182941</v>
       </c>
       <c r="D6" t="n">
-        <v>61.41407849791189</v>
+        <v>46.129174577423186</v>
       </c>
       <c r="E6" t="n">
-        <v>40.1416561437567</v>
+        <v>60.55349883280192</v>
       </c>
       <c r="F6" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="7">
@@ -1579,16 +2341,16 @@
         <v>6.0</v>
       </c>
       <c r="B7" t="n">
-        <v>29.240432931253896</v>
+        <v>69.2973226475855</v>
       </c>
       <c r="C7" t="n">
-        <v>42.72386307503329</v>
+        <v>47.32688293649326</v>
       </c>
       <c r="D7" t="n">
-        <v>46.91344263710582</v>
+        <v>64.26657323420501</v>
       </c>
       <c r="E7" t="n">
-        <v>40.211271537334746</v>
+        <v>45.19895754771675</v>
       </c>
       <c r="F7" t="n">
         <v>1.0</v>
@@ -1599,19 +2361,19 @@
         <v>7.0</v>
       </c>
       <c r="B8" t="n">
-        <v>36.54166594631742</v>
+        <v>61.995860853055355</v>
       </c>
       <c r="C8" t="n">
-        <v>53.325065821807385</v>
+        <v>58.62416636210095</v>
       </c>
       <c r="D8" t="n">
-        <v>52.65372982588689</v>
+        <v>64.55043112973192</v>
       </c>
       <c r="E8" t="n">
-        <v>35.35320867498359</v>
+        <v>55.19666988666826</v>
       </c>
       <c r="F8" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="9">
@@ -1619,19 +2381,19 @@
         <v>8.0</v>
       </c>
       <c r="B9" t="n">
-        <v>39.17381783157466</v>
+        <v>57.147828799659734</v>
       </c>
       <c r="C9" t="n">
-        <v>63.496089104968426</v>
+        <v>44.92333028346594</v>
       </c>
       <c r="D9" t="n">
-        <v>51.75789718691468</v>
+        <v>47.35568062869092</v>
       </c>
       <c r="E9" t="n">
-        <v>67.39175553707264</v>
+        <v>44.54074004184221</v>
       </c>
       <c r="F9" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="10">
@@ -1639,19 +2401,19 @@
         <v>9.0</v>
       </c>
       <c r="B10" t="n">
-        <v>39.1038182740678</v>
+        <v>65.76994773362398</v>
       </c>
       <c r="C10" t="n">
-        <v>42.504966109257566</v>
+        <v>61.312352685520665</v>
       </c>
       <c r="D10" t="n">
-        <v>18.161313237037394</v>
+        <v>54.17789140967911</v>
       </c>
       <c r="E10" t="n">
-        <v>61.768770528810016</v>
+        <v>63.776632523026244</v>
       </c>
       <c r="F10" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="11">
@@ -1659,19 +2421,19 @@
         <v>10.0</v>
       </c>
       <c r="B11" t="n">
-        <v>48.626260385056916</v>
+        <v>47.99086594622155</v>
       </c>
       <c r="C11" t="n">
-        <v>47.216389345578676</v>
+        <v>50.46107683980651</v>
       </c>
       <c r="D11" t="n">
-        <v>44.23874488734674</v>
+        <v>34.42232583737176</v>
       </c>
       <c r="E11" t="n">
-        <v>52.867451017224546</v>
+        <v>33.365624224327306</v>
       </c>
       <c r="F11" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="12">
@@ -1679,19 +2441,19 @@
         <v>11.0</v>
       </c>
       <c r="B12" t="n">
-        <v>53.53709460575845</v>
+        <v>67.97429738084546</v>
       </c>
       <c r="C12" t="n">
-        <v>39.046591627785304</v>
+        <v>34.07552978361851</v>
       </c>
       <c r="D12" t="n">
-        <v>51.880117018095625</v>
+        <v>48.01450975151713</v>
       </c>
       <c r="E12" t="n">
-        <v>47.3236255408973</v>
+        <v>60.00694146757128</v>
       </c>
       <c r="F12" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="13">
@@ -1699,19 +2461,19 @@
         <v>12.0</v>
       </c>
       <c r="B13" t="n">
-        <v>25.877990038521162</v>
+        <v>42.81113124018735</v>
       </c>
       <c r="C13" t="n">
-        <v>57.9871950753987</v>
+        <v>34.353517698521145</v>
       </c>
       <c r="D13" t="n">
-        <v>58.439184928296285</v>
+        <v>37.83279607393005</v>
       </c>
       <c r="E13" t="n">
-        <v>48.37132719751366</v>
+        <v>35.619959843305494</v>
       </c>
       <c r="F13" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="14">
@@ -1719,19 +2481,19 @@
         <v>13.0</v>
       </c>
       <c r="B14" t="n">
-        <v>44.399583790725146</v>
+        <v>52.244921170499005</v>
       </c>
       <c r="C14" t="n">
-        <v>47.90904336806611</v>
+        <v>58.78806238851792</v>
       </c>
       <c r="D14" t="n">
-        <v>59.78936638056167</v>
+        <v>43.32424712939942</v>
       </c>
       <c r="E14" t="n">
-        <v>37.5627520759685</v>
+        <v>50.112559809537856</v>
       </c>
       <c r="F14" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="15">
@@ -1739,16 +2501,16 @@
         <v>14.0</v>
       </c>
       <c r="B15" t="n">
-        <v>41.26671428902308</v>
+        <v>41.250649910781156</v>
       </c>
       <c r="C15" t="n">
-        <v>43.74817116900982</v>
+        <v>69.83038786828914</v>
       </c>
       <c r="D15" t="n">
-        <v>42.15682671855246</v>
+        <v>45.07313071817276</v>
       </c>
       <c r="E15" t="n">
-        <v>34.37235264483354</v>
+        <v>50.860119058290216</v>
       </c>
       <c r="F15" t="n">
         <v>1.0</v>
@@ -1759,16 +2521,16 @@
         <v>15.0</v>
       </c>
       <c r="B16" t="n">
-        <v>50.35763163809053</v>
+        <v>52.101975521209035</v>
       </c>
       <c r="C16" t="n">
-        <v>43.340149776666706</v>
+        <v>47.42273752924256</v>
       </c>
       <c r="D16" t="n">
-        <v>58.40034965103965</v>
+        <v>41.47985204140846</v>
       </c>
       <c r="E16" t="n">
-        <v>49.91330508129338</v>
+        <v>38.50540406085896</v>
       </c>
       <c r="F16" t="n">
         <v>1.0</v>
@@ -1779,16 +2541,16 @@
         <v>16.0</v>
       </c>
       <c r="B17" t="n">
-        <v>38.63884706122601</v>
+        <v>39.23629875764164</v>
       </c>
       <c r="C17" t="n">
-        <v>45.279809503967286</v>
+        <v>44.533688489008625</v>
       </c>
       <c r="D17" t="n">
-        <v>45.43713517240405</v>
+        <v>35.138646114975735</v>
       </c>
       <c r="E17" t="n">
-        <v>44.54900111418777</v>
+        <v>41.06640762487926</v>
       </c>
       <c r="F17" t="n">
         <v>1.0</v>
@@ -1799,19 +2561,19 @@
         <v>17.0</v>
       </c>
       <c r="B18" t="n">
-        <v>50.08537751773311</v>
+        <v>54.69719925242226</v>
       </c>
       <c r="C18" t="n">
-        <v>48.93185552538923</v>
+        <v>41.0522374689896</v>
       </c>
       <c r="D18" t="n">
-        <v>55.028239831890474</v>
+        <v>46.81893741756495</v>
       </c>
       <c r="E18" t="n">
-        <v>46.53767597078626</v>
+        <v>52.76884107509335</v>
       </c>
       <c r="F18" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="19">
@@ -1819,19 +2581,19 @@
         <v>18.0</v>
       </c>
       <c r="B19" t="n">
-        <v>39.91078535385202</v>
+        <v>52.878153113533074</v>
       </c>
       <c r="C19" t="n">
-        <v>51.81216890921562</v>
+        <v>33.281700399841085</v>
       </c>
       <c r="D19" t="n">
-        <v>53.361181925347225</v>
+        <v>47.27041803269786</v>
       </c>
       <c r="E19" t="n">
-        <v>24.01878130203723</v>
+        <v>51.641221084344345</v>
       </c>
       <c r="F19" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="20">
@@ -1839,19 +2601,19 @@
         <v>19.0</v>
       </c>
       <c r="B20" t="n">
-        <v>44.68835447464951</v>
+        <v>53.61218194413847</v>
       </c>
       <c r="C20" t="n">
-        <v>41.26502026566094</v>
+        <v>51.70933201783235</v>
       </c>
       <c r="D20" t="n">
-        <v>27.44354142536258</v>
+        <v>64.6855303840539</v>
       </c>
       <c r="E20" t="n">
-        <v>60.099176413568514</v>
+        <v>62.988597394576146</v>
       </c>
       <c r="F20" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="21">
@@ -1859,19 +2621,19 @@
         <v>20.0</v>
       </c>
       <c r="B21" t="n">
-        <v>61.38441772007139</v>
+        <v>43.442330196007575</v>
       </c>
       <c r="C21" t="n">
-        <v>39.61747587527478</v>
+        <v>56.74711716532504</v>
       </c>
       <c r="D21" t="n">
-        <v>36.15733601913416</v>
+        <v>45.32544793369139</v>
       </c>
       <c r="E21" t="n">
-        <v>40.35098350812534</v>
+        <v>49.56175193334933</v>
       </c>
       <c r="F21" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="22">
@@ -1879,16 +2641,16 @@
         <v>21.0</v>
       </c>
       <c r="B22" t="n">
-        <v>37.55811558403213</v>
+        <v>54.12378446034788</v>
       </c>
       <c r="C22" t="n">
-        <v>59.5881680413626</v>
+        <v>51.49925528654846</v>
       </c>
       <c r="D22" t="n">
-        <v>62.64233272183568</v>
+        <v>54.82413660505699</v>
       </c>
       <c r="E22" t="n">
-        <v>79.68613288644059</v>
+        <v>48.784749492809134</v>
       </c>
       <c r="F22" t="n">
         <v>1.0</v>
@@ -1899,19 +2661,19 @@
         <v>22.0</v>
       </c>
       <c r="B23" t="n">
-        <v>51.318219397523436</v>
+        <v>52.698858296516235</v>
       </c>
       <c r="C23" t="n">
-        <v>56.38932716541045</v>
+        <v>23.341215656714912</v>
       </c>
       <c r="D23" t="n">
-        <v>49.5292497765547</v>
+        <v>48.29553720675965</v>
       </c>
       <c r="E23" t="n">
-        <v>56.25270315695404</v>
+        <v>43.186846774350144</v>
       </c>
       <c r="F23" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="24">
@@ -1919,16 +2681,16 @@
         <v>23.0</v>
       </c>
       <c r="B24" t="n">
-        <v>51.29108582929604</v>
+        <v>69.3596367916671</v>
       </c>
       <c r="C24" t="n">
-        <v>55.09025843531159</v>
+        <v>62.17423253798881</v>
       </c>
       <c r="D24" t="n">
-        <v>52.339410117378314</v>
+        <v>69.11600785673633</v>
       </c>
       <c r="E24" t="n">
-        <v>40.06002636578141</v>
+        <v>45.54384089968958</v>
       </c>
       <c r="F24" t="n">
         <v>1.0</v>
@@ -1939,19 +2701,19 @@
         <v>24.0</v>
       </c>
       <c r="B25" t="n">
-        <v>47.69984428235643</v>
+        <v>53.8455030504936</v>
       </c>
       <c r="C25" t="n">
-        <v>30.92704003211447</v>
+        <v>73.1818134715243</v>
       </c>
       <c r="D25" t="n">
-        <v>42.97593435110663</v>
+        <v>56.37687746557438</v>
       </c>
       <c r="E25" t="n">
-        <v>46.167397291976414</v>
+        <v>55.8348368371317</v>
       </c>
       <c r="F25" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="26">
@@ -1959,16 +2721,16 @@
         <v>25.0</v>
       </c>
       <c r="B26" t="n">
-        <v>56.94522767812572</v>
+        <v>48.71160125592452</v>
       </c>
       <c r="C26" t="n">
-        <v>33.31937531967016</v>
+        <v>31.46860164559419</v>
       </c>
       <c r="D26" t="n">
-        <v>67.54898955642955</v>
+        <v>30.083279859164122</v>
       </c>
       <c r="E26" t="n">
-        <v>48.57718810852075</v>
+        <v>61.35371651301995</v>
       </c>
       <c r="F26" t="n">
         <v>1.0</v>
@@ -1979,19 +2741,19 @@
         <v>26.0</v>
       </c>
       <c r="B27" t="n">
-        <v>41.72822159574927</v>
+        <v>44.71556999676369</v>
       </c>
       <c r="C27" t="n">
-        <v>50.21232869822566</v>
+        <v>67.28683958565469</v>
       </c>
       <c r="D27" t="n">
-        <v>34.07039529703613</v>
+        <v>50.716775841799866</v>
       </c>
       <c r="E27" t="n">
-        <v>51.71374857923579</v>
+        <v>59.49952164579703</v>
       </c>
       <c r="F27" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="28">
@@ -1999,19 +2761,19 @@
         <v>27.0</v>
       </c>
       <c r="B28" t="n">
-        <v>54.58836539537961</v>
+        <v>65.49650262122071</v>
       </c>
       <c r="C28" t="n">
-        <v>52.91157228656896</v>
+        <v>50.836372884250885</v>
       </c>
       <c r="D28" t="n">
-        <v>48.025742271797384</v>
+        <v>49.6913881355888</v>
       </c>
       <c r="E28" t="n">
-        <v>53.783269359731605</v>
+        <v>54.603698284241645</v>
       </c>
       <c r="F28" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="29">
@@ -2019,16 +2781,16 @@
         <v>28.0</v>
       </c>
       <c r="B29" t="n">
-        <v>76.44839019522482</v>
+        <v>71.78277997454991</v>
       </c>
       <c r="C29" t="n">
-        <v>39.66650136390428</v>
+        <v>59.010342338361795</v>
       </c>
       <c r="D29" t="n">
-        <v>55.0882141302182</v>
+        <v>51.996632504516235</v>
       </c>
       <c r="E29" t="n">
-        <v>45.776928885346635</v>
+        <v>28.117402866374817</v>
       </c>
       <c r="F29" t="n">
         <v>1.0</v>
@@ -2039,19 +2801,19 @@
         <v>29.0</v>
       </c>
       <c r="B30" t="n">
-        <v>50.610131027310594</v>
+        <v>52.09479435984652</v>
       </c>
       <c r="C30" t="n">
-        <v>46.08351868065444</v>
+        <v>63.52219027573836</v>
       </c>
       <c r="D30" t="n">
-        <v>51.92542298634669</v>
+        <v>55.521008051463824</v>
       </c>
       <c r="E30" t="n">
-        <v>46.087079081586985</v>
+        <v>34.43166745671855</v>
       </c>
       <c r="F30" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="31">
@@ -2059,19 +2821,19 @@
         <v>30.0</v>
       </c>
       <c r="B31" t="n">
-        <v>48.98990944594003</v>
+        <v>36.27961106262493</v>
       </c>
       <c r="C31" t="n">
-        <v>52.26914928754155</v>
+        <v>60.00954528995841</v>
       </c>
       <c r="D31" t="n">
-        <v>44.11597491810828</v>
+        <v>47.37573010307522</v>
       </c>
       <c r="E31" t="n">
-        <v>44.95582306729223</v>
+        <v>42.868563392417734</v>
       </c>
       <c r="F31" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="32">
@@ -2079,19 +2841,19 @@
         <v>31.0</v>
       </c>
       <c r="B32" t="n">
-        <v>40.250462255561175</v>
+        <v>40.20573374598768</v>
       </c>
       <c r="C32" t="n">
-        <v>55.513969307659146</v>
+        <v>57.47730296170207</v>
       </c>
       <c r="D32" t="n">
-        <v>46.58621400879218</v>
+        <v>51.920052021906216</v>
       </c>
       <c r="E32" t="n">
-        <v>57.423025962368435</v>
+        <v>45.26174673015746</v>
       </c>
       <c r="F32" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="33">
@@ -2099,19 +2861,19 @@
         <v>32.0</v>
       </c>
       <c r="B33" t="n">
-        <v>63.968658033048094</v>
+        <v>55.897821386854254</v>
       </c>
       <c r="C33" t="n">
-        <v>53.093208227994054</v>
+        <v>39.52518412340582</v>
       </c>
       <c r="D33" t="n">
-        <v>56.67895874916159</v>
+        <v>47.48110221983399</v>
       </c>
       <c r="E33" t="n">
-        <v>41.63145842222423</v>
+        <v>34.83903123067586</v>
       </c>
       <c r="F33" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="34">
@@ -2119,16 +2881,16 @@
         <v>33.0</v>
       </c>
       <c r="B34" t="n">
-        <v>59.21517881451213</v>
+        <v>51.67636049754993</v>
       </c>
       <c r="C34" t="n">
-        <v>70.20283112896345</v>
+        <v>47.45013757430191</v>
       </c>
       <c r="D34" t="n">
-        <v>56.403842653870925</v>
+        <v>73.31812740502644</v>
       </c>
       <c r="E34" t="n">
-        <v>42.73139338556472</v>
+        <v>46.05067054946825</v>
       </c>
       <c r="F34" t="n">
         <v>1.0</v>
@@ -2139,16 +2901,16 @@
         <v>34.0</v>
       </c>
       <c r="B35" t="n">
-        <v>44.814665822272545</v>
+        <v>57.254815087171444</v>
       </c>
       <c r="C35" t="n">
-        <v>57.54011887938971</v>
+        <v>36.63305670570276</v>
       </c>
       <c r="D35" t="n">
-        <v>58.222471178897166</v>
+        <v>63.619317317157865</v>
       </c>
       <c r="E35" t="n">
-        <v>44.13377255879122</v>
+        <v>59.19622363809432</v>
       </c>
       <c r="F35" t="n">
         <v>1.0</v>
@@ -2159,19 +2921,19 @@
         <v>35.0</v>
       </c>
       <c r="B36" t="n">
-        <v>36.25141054072642</v>
+        <v>59.190860456722305</v>
       </c>
       <c r="C36" t="n">
-        <v>47.169203342787036</v>
+        <v>43.66650422011366</v>
       </c>
       <c r="D36" t="n">
-        <v>63.85368209488698</v>
+        <v>49.41186541848026</v>
       </c>
       <c r="E36" t="n">
-        <v>54.761567284837504</v>
+        <v>74.36786132331791</v>
       </c>
       <c r="F36" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="37">
@@ -2179,19 +2941,19 @@
         <v>36.0</v>
       </c>
       <c r="B37" t="n">
-        <v>37.26882344137772</v>
+        <v>47.563336780318416</v>
       </c>
       <c r="C37" t="n">
-        <v>55.15457760720961</v>
+        <v>56.59522069610546</v>
       </c>
       <c r="D37" t="n">
-        <v>69.41243471313699</v>
+        <v>34.898254830680074</v>
       </c>
       <c r="E37" t="n">
-        <v>62.529782385381665</v>
+        <v>45.874836035538465</v>
       </c>
       <c r="F37" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="38">
@@ -2199,16 +2961,16 @@
         <v>37.0</v>
       </c>
       <c r="B38" t="n">
-        <v>56.14384409284887</v>
+        <v>41.27678012151573</v>
       </c>
       <c r="C38" t="n">
-        <v>43.294792704737716</v>
+        <v>46.69488907748781</v>
       </c>
       <c r="D38" t="n">
-        <v>54.12851425837258</v>
+        <v>47.021843360731836</v>
       </c>
       <c r="E38" t="n">
-        <v>52.77453809604627</v>
+        <v>42.788867258041336</v>
       </c>
       <c r="F38" t="n">
         <v>1.0</v>
@@ -2219,19 +2981,19 @@
         <v>38.0</v>
       </c>
       <c r="B39" t="n">
-        <v>40.705279884721165</v>
+        <v>64.33167801352754</v>
       </c>
       <c r="C39" t="n">
-        <v>70.61646427587566</v>
+        <v>53.371625132949745</v>
       </c>
       <c r="D39" t="n">
-        <v>44.33563181768516</v>
+        <v>48.61490021879052</v>
       </c>
       <c r="E39" t="n">
-        <v>36.14415529135848</v>
+        <v>46.276116842795076</v>
       </c>
       <c r="F39" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="40">
@@ -2239,19 +3001,19 @@
         <v>39.0</v>
       </c>
       <c r="B40" t="n">
-        <v>58.75384127793673</v>
+        <v>38.253472145202274</v>
       </c>
       <c r="C40" t="n">
-        <v>43.92372177265613</v>
+        <v>52.5652841854968</v>
       </c>
       <c r="D40" t="n">
-        <v>62.262719939024294</v>
+        <v>30.435341637109403</v>
       </c>
       <c r="E40" t="n">
-        <v>31.244841069102524</v>
+        <v>51.54328860961719</v>
       </c>
       <c r="F40" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="41">
@@ -2259,16 +3021,16 @@
         <v>40.0</v>
       </c>
       <c r="B41" t="n">
-        <v>40.56872335919661</v>
+        <v>52.66236991050598</v>
       </c>
       <c r="C41" t="n">
-        <v>62.59065141128137</v>
+        <v>55.34193207653544</v>
       </c>
       <c r="D41" t="n">
-        <v>50.0745495988073</v>
+        <v>27.5719276210569</v>
       </c>
       <c r="E41" t="n">
-        <v>62.171075336902305</v>
+        <v>33.768946184543836</v>
       </c>
       <c r="F41" t="n">
         <v>1.0</v>
@@ -2279,19 +3041,19 @@
         <v>41.0</v>
       </c>
       <c r="B42" t="n">
-        <v>52.32244368237622</v>
+        <v>54.949242673743655</v>
       </c>
       <c r="C42" t="n">
-        <v>60.03938996727331</v>
+        <v>52.16332184186735</v>
       </c>
       <c r="D42" t="n">
-        <v>43.74922901537573</v>
+        <v>47.52642818557957</v>
       </c>
       <c r="E42" t="n">
-        <v>35.47115837135435</v>
+        <v>42.872456490320324</v>
       </c>
       <c r="F42" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="43">
@@ -2299,19 +3061,19 @@
         <v>42.0</v>
       </c>
       <c r="B43" t="n">
-        <v>57.430116511266036</v>
+        <v>51.36544598957945</v>
       </c>
       <c r="C43" t="n">
-        <v>66.06357902336845</v>
+        <v>53.54693829104266</v>
       </c>
       <c r="D43" t="n">
-        <v>59.421852393551134</v>
+        <v>57.68845477574497</v>
       </c>
       <c r="E43" t="n">
-        <v>43.68172187039452</v>
+        <v>46.03571159248664</v>
       </c>
       <c r="F43" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="44">
@@ -2319,19 +3081,19 @@
         <v>43.0</v>
       </c>
       <c r="B44" t="n">
-        <v>46.17743723346976</v>
+        <v>65.48811637628678</v>
       </c>
       <c r="C44" t="n">
-        <v>71.00878769275947</v>
+        <v>53.37193901861696</v>
       </c>
       <c r="D44" t="n">
-        <v>71.47588844771651</v>
+        <v>44.96601524562728</v>
       </c>
       <c r="E44" t="n">
-        <v>19.533430361072448</v>
+        <v>56.405516138328046</v>
       </c>
       <c r="F44" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="45">
@@ -2339,19 +3101,19 @@
         <v>44.0</v>
       </c>
       <c r="B45" t="n">
-        <v>59.61764378513605</v>
+        <v>37.84798782921655</v>
       </c>
       <c r="C45" t="n">
-        <v>53.6229759121959</v>
+        <v>48.05327162741828</v>
       </c>
       <c r="D45" t="n">
-        <v>61.87969234138491</v>
+        <v>66.72906679397363</v>
       </c>
       <c r="E45" t="n">
-        <v>71.17341203096647</v>
+        <v>39.782213224489766</v>
       </c>
       <c r="F45" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="46">
@@ -2359,16 +3121,16 @@
         <v>45.0</v>
       </c>
       <c r="B46" t="n">
-        <v>47.01664312993537</v>
+        <v>37.47750902645232</v>
       </c>
       <c r="C46" t="n">
-        <v>42.05751302173917</v>
+        <v>49.1883298492656</v>
       </c>
       <c r="D46" t="n">
-        <v>60.63109353374052</v>
+        <v>57.56990056371287</v>
       </c>
       <c r="E46" t="n">
-        <v>45.654035105839014</v>
+        <v>59.02757131688468</v>
       </c>
       <c r="F46" t="n">
         <v>1.0</v>
@@ -2379,16 +3141,16 @@
         <v>46.0</v>
       </c>
       <c r="B47" t="n">
-        <v>46.35971442601585</v>
+        <v>38.06631251696099</v>
       </c>
       <c r="C47" t="n">
-        <v>58.98714491820391</v>
+        <v>71.48971386334117</v>
       </c>
       <c r="D47" t="n">
-        <v>48.24451688181511</v>
+        <v>53.00695055864567</v>
       </c>
       <c r="E47" t="n">
-        <v>32.27639970129599</v>
+        <v>50.32340473756395</v>
       </c>
       <c r="F47" t="n">
         <v>1.0</v>
@@ -2399,16 +3161,16 @@
         <v>47.0</v>
       </c>
       <c r="B48" t="n">
-        <v>55.7517504567789</v>
+        <v>50.50857944027994</v>
       </c>
       <c r="C48" t="n">
-        <v>53.74746791011025</v>
+        <v>36.30554394981776</v>
       </c>
       <c r="D48" t="n">
-        <v>56.864039371119105</v>
+        <v>52.87993976812746</v>
       </c>
       <c r="E48" t="n">
-        <v>48.61857555359815</v>
+        <v>48.04591780214002</v>
       </c>
       <c r="F48" t="n">
         <v>1.0</v>
@@ -2419,19 +3181,19 @@
         <v>48.0</v>
       </c>
       <c r="B49" t="n">
-        <v>41.1111581750776</v>
+        <v>53.117371138904</v>
       </c>
       <c r="C49" t="n">
-        <v>42.00143621280304</v>
+        <v>56.44039948101496</v>
       </c>
       <c r="D49" t="n">
-        <v>73.79392736482545</v>
+        <v>49.37474350321054</v>
       </c>
       <c r="E49" t="n">
-        <v>45.53974350007459</v>
+        <v>51.02094775611968</v>
       </c>
       <c r="F49" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="50">
@@ -2439,19 +3201,19 @@
         <v>49.0</v>
       </c>
       <c r="B50" t="n">
-        <v>58.15439387465959</v>
+        <v>42.9811569751659</v>
       </c>
       <c r="C50" t="n">
-        <v>50.807793285451794</v>
+        <v>55.032897751335625</v>
       </c>
       <c r="D50" t="n">
-        <v>56.35421966614652</v>
+        <v>54.364082439591584</v>
       </c>
       <c r="E50" t="n">
-        <v>49.8019350266308</v>
+        <v>63.24138867652674</v>
       </c>
       <c r="F50" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="51">
@@ -2459,16 +3221,16 @@
         <v>50.0</v>
       </c>
       <c r="B51" t="n">
-        <v>36.365999888530595</v>
+        <v>56.424961719240635</v>
       </c>
       <c r="C51" t="n">
-        <v>43.68634129083419</v>
+        <v>45.21770643002648</v>
       </c>
       <c r="D51" t="n">
-        <v>55.95427640458236</v>
+        <v>45.60799858809557</v>
       </c>
       <c r="E51" t="n">
-        <v>56.772798527360045</v>
+        <v>50.62645038956979</v>
       </c>
       <c r="F51" t="n">
         <v>1.0</v>
@@ -2479,19 +3241,19 @@
         <v>51.0</v>
       </c>
       <c r="B52" t="n">
-        <v>65.7602285265541</v>
+        <v>67.61835091595451</v>
       </c>
       <c r="C52" t="n">
-        <v>41.3252083466614</v>
+        <v>48.442639476378446</v>
       </c>
       <c r="D52" t="n">
-        <v>35.59092558205442</v>
+        <v>34.486442791259115</v>
       </c>
       <c r="E52" t="n">
-        <v>43.1734686173031</v>
+        <v>37.83658931068535</v>
       </c>
       <c r="F52" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="53">
@@ -2499,19 +3261,19 @@
         <v>52.0</v>
       </c>
       <c r="B53" t="n">
-        <v>61.17482686352165</v>
+        <v>48.868358972017624</v>
       </c>
       <c r="C53" t="n">
-        <v>57.70514948768745</v>
+        <v>49.5895878598551</v>
       </c>
       <c r="D53" t="n">
-        <v>39.185687405518735</v>
+        <v>47.15420226976645</v>
       </c>
       <c r="E53" t="n">
-        <v>53.60532712961369</v>
+        <v>32.68617666915667</v>
       </c>
       <c r="F53" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="54">
@@ -2519,19 +3281,119 @@
         <v>53.0</v>
       </c>
       <c r="B54" t="n">
-        <v>40.44520991656732</v>
+        <v>51.6754301502284</v>
       </c>
       <c r="C54" t="n">
-        <v>53.66211924902782</v>
+        <v>51.252744962853754</v>
       </c>
       <c r="D54" t="n">
-        <v>60.77203474687047</v>
+        <v>49.04182674971141</v>
       </c>
       <c r="E54" t="n">
-        <v>48.748095312569795</v>
+        <v>49.92885849389124</v>
       </c>
       <c r="F54" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>54.0</v>
+      </c>
+      <c r="B55" t="n">
+        <v>52.68282193011285</v>
+      </c>
+      <c r="C55" t="n">
+        <v>42.99752404799247</v>
+      </c>
+      <c r="D55" t="n">
+        <v>58.765378319683634</v>
+      </c>
+      <c r="E55" t="n">
+        <v>42.37256454513602</v>
+      </c>
+      <c r="F55" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>55.0</v>
+      </c>
+      <c r="B56" t="n">
+        <v>35.52256540528579</v>
+      </c>
+      <c r="C56" t="n">
+        <v>56.659609382756486</v>
+      </c>
+      <c r="D56" t="n">
+        <v>32.49830608971307</v>
+      </c>
+      <c r="E56" t="n">
+        <v>61.26570186693296</v>
+      </c>
+      <c r="F56" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>56.0</v>
+      </c>
+      <c r="B57" t="n">
+        <v>50.95168159821541</v>
+      </c>
+      <c r="C57" t="n">
+        <v>51.986695849236064</v>
+      </c>
+      <c r="D57" t="n">
+        <v>48.64373502256933</v>
+      </c>
+      <c r="E57" t="n">
+        <v>56.70672363989199</v>
+      </c>
+      <c r="F57" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>57.0</v>
+      </c>
+      <c r="B58" t="n">
+        <v>59.78813997312221</v>
+      </c>
+      <c r="C58" t="n">
+        <v>57.183714364462304</v>
+      </c>
+      <c r="D58" t="n">
+        <v>56.564328151432434</v>
+      </c>
+      <c r="E58" t="n">
+        <v>53.00288851138999</v>
+      </c>
+      <c r="F58" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>58.0</v>
+      </c>
+      <c r="B59" t="n">
+        <v>44.05829447589217</v>
+      </c>
+      <c r="C59" t="n">
+        <v>46.45869468041206</v>
+      </c>
+      <c r="D59" t="n">
+        <v>54.81406199792112</v>
+      </c>
+      <c r="E59" t="n">
+        <v>47.0333023467285</v>
+      </c>
+      <c r="F59" t="n">
+        <v>1.0</v>
       </c>
     </row>
   </sheetData>
